--- a/data/trans_bre/IP41-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP41-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 14,15</t>
+          <t>-5,95; 17,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 10,0</t>
+          <t>-22,93; 8,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 16,59</t>
+          <t>-6,05; 21,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 11,28</t>
+          <t>-24,19; 9,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 5,57</t>
+          <t>-4,57; 5,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 10,95</t>
+          <t>-2,34; 10,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -1,67</t>
+          <t>-15,94; -1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,13</t>
+          <t>-4,76; 5,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 13,12</t>
+          <t>-2,59; 12,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -1,87</t>
+          <t>-16,86; -1,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 1,25</t>
+          <t>-6,17; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,13</t>
+          <t>-7,39; 1,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 6,93</t>
+          <t>-4,02; 6,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 1,35</t>
+          <t>-6,45; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,34</t>
+          <t>-7,81; 1,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 8,5</t>
+          <t>-4,62; 8,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 4,73</t>
+          <t>-5,43; 4,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 7,73</t>
+          <t>-3,32; 7,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 12,62</t>
+          <t>-0,74; 12,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 5,35</t>
+          <t>-5,71; 4,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 9,13</t>
+          <t>-3,67; 8,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 16,98</t>
+          <t>-0,94; 17,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 3,91</t>
+          <t>-7,2; 3,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,71</t>
+          <t>-3,6; 7,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 8,39</t>
+          <t>-5,1; 7,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,51</t>
+          <t>-7,89; 4,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 9,55</t>
+          <t>-4,13; 9,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 10,86</t>
+          <t>-6,03; 9,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,02</t>
+          <t>-3,79; 0,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,55</t>
+          <t>-1,83; 3,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,62</t>
+          <t>-2,69; 3,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 1,12</t>
+          <t>-4,05; 0,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,07</t>
+          <t>-2,04; 4,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,39</t>
+          <t>-3,15; 4,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/IP41-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP41-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-7,78</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-8,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,84; 4,65</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 9,83</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-14,7; -1,38</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,95; 17,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,93; 8,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 5,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 21,2</t>
+          <t>-2,45; 11,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 9,06</t>
+          <t>-15,56; -1,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>-2,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,31</t>
+          <t>-6,46; 1,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 10,65</t>
+          <t>-6,81; 2,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -1,39</t>
+          <t>-4,0; 7,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,87</t>
+          <t>-6,73; 1,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 12,78</t>
+          <t>-7,31; 2,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; -1,54</t>
+          <t>-4,65; 9,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 1,77</t>
+          <t>-5,85; 4,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 1,67</t>
+          <t>-3,69; 7,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,81</t>
+          <t>-1,06; 12,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,93</t>
+          <t>-6,17; 4,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 1,81</t>
+          <t>-4,15; 8,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,39</t>
+          <t>-1,24; 17,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 4,22</t>
+          <t>-7,39; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 7,23</t>
+          <t>-3,98; 7,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 12,78</t>
+          <t>-4,63; 7,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,63</t>
+          <t>-8,15; 4,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 8,51</t>
+          <t>-4,53; 9,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 17,43</t>
+          <t>-5,61; 10,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 3,66</t>
+          <t>-3,81; 0,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 7,85</t>
+          <t>-1,89; 3,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,52</t>
+          <t>-2,81; 3,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 4,27</t>
+          <t>-4,06; 1,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 9,8</t>
+          <t>-2,11; 4,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 9,7</t>
+          <t>-3,31; 4,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1108,114 +1108,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 0,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 3,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 3,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; 0,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 4,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 4,31</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
